--- a/medicine/Enfance/Affaire_de_la_Casa_Pia/Affaire_de_la_Casa_Pia.xlsx
+++ b/medicine/Enfance/Affaire_de_la_Casa_Pia/Affaire_de_la_Casa_Pia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Affaire de la Casa Pia est un cas d'abus sexuels et de prostitution d'enfants impliquant des enfants et des employés de l'établissement étatique portugais pour enfants pauvres et orphelins Casa Pia (« la Maison pieuse »), ainsi que des personnalités extérieures, qui auraient été clients du réseau de prostitution[1]. L'affaire implique des personnalités publiques et politiques, qui sont inculpées pour divers crimes dont des abus et viols d'enfants ainsi que des complicités, et pour certaines condamnées à de la prison ferme, dont le présentateur de télévision vedette Carlos Cruz (en), l'ancien ambassadeur du Portugal à l'UNESCO Jorge Ritto, et l'ancien gouverneur de Casa Pia Manuel Abrantes[2],[3],[4]. Plusieurs hauts responsables politiques dont des présidents sont accusés d'avoir ignoré les plaintes d'abus systématiques dans les établissements pendant au moins 20 ans[1]. L'existence d'un réseau de prostitution de plus de 100 garçons est ainsi révélé, au sein d'une organisation qui comptait 10 orphelinats et écoles s'occupant de plus de 4000 enfants[1]. Le scandale débute en septembre 2002 lorsque la mère d'un pensionnaire, connu sous le nom de Joël, s'est plainte d'abus par Carlos Salvino, employé d'une des maisons de Casa Pia, après que Joël lui ai dit avoir été violé par ce dernier[5],[1].
-En 2010, huit procès avaient eu lieu, dont certains menant à la condamnation d'anciens enfants de Casa Pia[4]. En 2010, à la suite d'un procès de près de six ans lors duquel 32 victimes présumées témoignent, six personnes sont condamnés à de la prison ferme, avec des peines allant de cinq à sept ans de prison, et 18 ans pour Carlos Silvino, l'employé qui avait abusé de garçons des centaines de fois et les avaient prostitués à d'autres hommes. La seule femme inculpée dans ce procès, accusée d'avoir laissé sa maison d'Elvas être utilisée par des pédophiles pour des « orgies »[6], est acquittée[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Affaire de la Casa Pia est un cas d'abus sexuels et de prostitution d'enfants impliquant des enfants et des employés de l'établissement étatique portugais pour enfants pauvres et orphelins Casa Pia (« la Maison pieuse »), ainsi que des personnalités extérieures, qui auraient été clients du réseau de prostitution. L'affaire implique des personnalités publiques et politiques, qui sont inculpées pour divers crimes dont des abus et viols d'enfants ainsi que des complicités, et pour certaines condamnées à de la prison ferme, dont le présentateur de télévision vedette Carlos Cruz (en), l'ancien ambassadeur du Portugal à l'UNESCO Jorge Ritto, et l'ancien gouverneur de Casa Pia Manuel Abrantes. Plusieurs hauts responsables politiques dont des présidents sont accusés d'avoir ignoré les plaintes d'abus systématiques dans les établissements pendant au moins 20 ans. L'existence d'un réseau de prostitution de plus de 100 garçons est ainsi révélé, au sein d'une organisation qui comptait 10 orphelinats et écoles s'occupant de plus de 4000 enfants. Le scandale débute en septembre 2002 lorsque la mère d'un pensionnaire, connu sous le nom de Joël, s'est plainte d'abus par Carlos Salvino, employé d'une des maisons de Casa Pia, après que Joël lui ai dit avoir été violé par ce dernier,.
+En 2010, huit procès avaient eu lieu, dont certains menant à la condamnation d'anciens enfants de Casa Pia. En 2010, à la suite d'un procès de près de six ans lors duquel 32 victimes présumées témoignent, six personnes sont condamnés à de la prison ferme, avec des peines allant de cinq à sept ans de prison, et 18 ans pour Carlos Silvino, l'employé qui avait abusé de garçons des centaines de fois et les avaient prostitués à d'autres hommes. La seule femme inculpée dans ce procès, accusée d'avoir laissé sa maison d'Elvas être utilisée par des pédophiles pour des « orgies », est acquittée.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Casa Pia est une institution caritative publique de renom, un foyer de jeunes orphelins et d’enfants défavorisés, fondé en 1780, et qui gère dans tout le pays une dizaine de centres qui accueillent environ 4 600 mineurs. C’est avec effroi que les Portugais ont ainsi découvert que durant près de trente ans, 128 enfants (mars 2003), dont la majorité étaient orphelins, mais aussi sourds et muets ou même handicapés mentaux, auraient été abusés dans l’indifférence des directeurs de l’école et des autorités publiques.
-Si le scandale éclate en 2002, il est révélé ensuite que la prédécesseur du président portugais Jorge Sampaio, le général Ramalho Eanes, était au courant d'accusations de réseau de prostitution 20 ans auparavant, mais les plaintes auprès de la police de l'époque semblent n'avoir donné aucune suite ou avoir disparu[1].
+Si le scandale éclate en 2002, il est révélé ensuite que la prédécesseur du président portugais Jorge Sampaio, le général Ramalho Eanes, était au courant d'accusations de réseau de prostitution 20 ans auparavant, mais les plaintes auprès de la police de l'époque semblent n'avoir donné aucune suite ou avoir disparu.
 </t>
         </is>
       </c>
